--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093603.622310816</v>
+        <v>3086586.607419104</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>296.4456281581536</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>60.953092730774</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.85099796338668</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>159.7734331012684</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>241.4923106593519</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.30122190860853</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>61.28737103419851</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>236.8662161487763</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>136.1916198885552</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>119.5125823915305</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896884</v>
+        <v>411.964516789692</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>47.10157674263856</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>108.0134540956649</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.31682910994023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>44.54322444486846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>46.2530778377178</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>104.7368409040603</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>207.2045317851313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9407843857167972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>268.9163732910995</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>174.7430637258772</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>242.0859420813449</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>219.0491471058332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.08349269302</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.120975752609</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1568.120975752609</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.332723154364</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>771.3468183647569</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>353.3830102629438</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2580.55162101258</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.789835650672</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757142</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757142</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.761784855325</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2281.999999493416</v>
       </c>
       <c r="V5" t="n">
-        <v>2398.188774620077</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.49977162703973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2008.049442644265</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2008.049442644265</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1655.280787374151</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.280787374151</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.280787374151</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.5758555962227</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>322.5758555962227</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D10" t="n">
-        <v>322.5758555962227</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>174.6627620138296</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>174.6627620138296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.5758555962227</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571605</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636243</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307618</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526315</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.6898113736376</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C13" t="n">
-        <v>703.7536284457307</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D13" t="n">
-        <v>553.6369890333949</v>
+        <v>353.2115380447265</v>
       </c>
       <c r="E13" t="n">
-        <v>553.6369890333949</v>
+        <v>353.2115380447265</v>
       </c>
       <c r="F13" t="n">
-        <v>406.7470415354845</v>
+        <v>206.3215905468161</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>206.3215905468161</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>206.3215905468161</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347407</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347407</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347407</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347407</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>1275.130855347407</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>1054.338276203877</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>177.1795914149472</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5542,10 +5542,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.8683222506741</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>829.9339571178743</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>540.5167870809138</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X19" t="n">
-        <v>540.5167870809138</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.5167870809138</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5846,7 +5846,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1141.200876391121</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1141.200876391121</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1141.200876391121</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.200876391121</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>462.4595652127116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>644.1080300429513</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>644.1080300429513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>644.1080300429513</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6454,22 +6454,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,10 +6487,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1000.490124917793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>711.072954880832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>510.2366179610307</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>510.2366179610307</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>360.1199785486949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>360.1199785486949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>510.2366179610307</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1227.283570263862</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>972.5990820579756</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>972.5990820579756</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>744.6095311599582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7159,10 +7159,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,37 +7171,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>943.3899024076591</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>943.3899024076591</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>653.9727323706985</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7404518075996</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>475.3232817706389</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776768</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>38.8600230194987</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>119.391991720739</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.405791368607055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>94.9299919886876</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>160.9309440669527</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.5944188789595</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.2944832206715</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>62.50998019456752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>44.93311153869672</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>144.4802636372144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>17.3209791074778</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.088916456060133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.15141031723243</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>33.08849621799484</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803341</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768956</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>5.796129016744089e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007623</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007544</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="J4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007401</v>
-      </c>
       <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007472</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-163910.590102448</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120964</v>
+        <v>426057.2891120962</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120964</v>
+        <v>426057.2891120962</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987145492</v>
+        <v>-392.1897610078059</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756093</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158881</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158886</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830169</v>
+        <v>348344.6275232952</v>
       </c>
       <c r="K6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="L6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.4227417728</v>
+        <v>389966.8314820511</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158884</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.47714460620358</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>155.4952276268838</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>56.67488725638938</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>86.25994781078305</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>141.9455991900193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>352.4967989865965</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>14.35795135951301</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>12.4238531296572</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>47.79721986752043</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092013</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.77020197440538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3086586.607419104</v>
+        <v>3091525.870268136</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>60.953092730774</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>172.0766384386614</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>38.85099796338668</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>159.7734331012684</v>
+        <v>29.21780329081372</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>92.00803688215797</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>22.98569063694847</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>61.28737103419851</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>141.8493698519406</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1916198885552</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.08991703025465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.964516789692</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>103.8373339158807</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>108.0134540956649</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111318</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.32381826160518</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.562624396424917</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>10.34713777957299</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>88.99177052521325</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151921</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2580.55162101258</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2326.789835650672</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.726948307101</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W2" t="n">
-        <v>1642.958293036987</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X2" t="n">
-        <v>1269.492534775907</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2535.761784855325</v>
+        <v>2612.607468931732</v>
       </c>
       <c r="U5" t="n">
-        <v>2281.999999493416</v>
+        <v>2358.845683569823</v>
       </c>
       <c r="V5" t="n">
-        <v>1950.937112149846</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="W5" t="n">
-        <v>1950.937112149846</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X5" t="n">
-        <v>1950.937112149846</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.797780174034</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>77.16085115061543</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.889273203046</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>912.6235745962956</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>526.8353219980513</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>115.8494172084438</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>546.4805193761944</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.5445361866199</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.5445361866199</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>72.21562528526812</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.3281774570622</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C13" t="n">
-        <v>503.3281774570622</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="D13" t="n">
-        <v>353.2115380447265</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="E13" t="n">
-        <v>353.2115380447265</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>206.3215905468161</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>206.3215905468161</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>206.3215905468161</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>503.3281774570622</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.3281774570622</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>273.7252366379396</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169051</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1488.464616235101</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1288.544606150654</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6174,7 +6174,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,13 +6211,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6651,13 +6651,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>42.59662873068848</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>2.405791368607055</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>160.9309440669527</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>99.6172146242198</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>163.1458727986147</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="9">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803343</v>
@@ -26340,16 +26340,16 @@
         <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803341</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
@@ -26447,13 +26447,13 @@
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.590102448</v>
+        <v>-163910.5901024479</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120962</v>
+        <v>426057.2891120964</v>
       </c>
       <c r="D6" t="n">
         <v>426057.2891120962</v>
       </c>
       <c r="E6" t="n">
-        <v>-392.1897610078059</v>
+        <v>484.942372741672</v>
       </c>
       <c r="F6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="G6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="H6" t="n">
-        <v>524767.8467158881</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="I6" t="n">
-        <v>524767.8467158886</v>
+        <v>525644.9788496381</v>
       </c>
       <c r="J6" t="n">
-        <v>348344.6275232952</v>
+        <v>349221.7596570447</v>
       </c>
       <c r="K6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="L6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496381</v>
       </c>
       <c r="M6" t="n">
-        <v>389966.8314820511</v>
+        <v>390843.9636158007</v>
       </c>
       <c r="N6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="O6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="P6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496379</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>155.4952276268838</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>155.6756200314735</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>56.67488725638938</v>
+        <v>187.2305170668441</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.30176537689294</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>111.9799311553898</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>352.4967989865965</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>109.3747976563487</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.4238531296572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>27.11004215828237</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35500,16 +35500,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
